--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369319.7714620412</v>
+        <v>358322.4066856088</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707513</v>
+        <v>14046880.39707514</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901944</v>
+        <v>4671565.284901945</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7226197.604958564</v>
+        <v>7159567.168810669</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +673,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>76.45328601277593</v>
       </c>
       <c r="H2" t="n">
-        <v>85.30974715477869</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>98.15366458399245</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>24.86535359721408</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>172.7014395312208</v>
       </c>
       <c r="V5" t="n">
-        <v>119.0131614123048</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>228.0996351671476</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>88.07239589744364</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>227.4300580117232</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1294,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.35809590846788</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>84.40674218853263</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1531,7 +1533,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>117.15854261448</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1540,7 +1542,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.12043047005152</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1616,7 +1618,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1661,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>120.4128486741871</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>262.0304367223874</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>115.1055716303386</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1856,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>95.37952295492796</v>
       </c>
       <c r="X17" t="n">
-        <v>58.67748875058538</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>98.15366458399242</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>104.7223743992564</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2144,10 +2146,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>120.1623903431337</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.7998986723405</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2485,13 +2487,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>181.2635869532363</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>255.1659571616772</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2570,10 +2572,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2722,13 +2724,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>15.90149023681979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>240.8582085783696</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2776,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.54790254396433</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2953,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3080,7 +3082,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U32" t="n">
         <v>255.7713603095518</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100367</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>16.97279502168107</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3433,16 +3435,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>134.6953597735377</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>209.7612727945905</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>54.7666379550617</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>106.858786719141</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3980,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>70.13438451350493</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4147,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>152.7790116748991</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>161.673798810038</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1408.671538471193</v>
+        <v>1399.725618125736</v>
       </c>
       <c r="C2" t="n">
-        <v>981.7708084844935</v>
+        <v>972.8248881390361</v>
       </c>
       <c r="D2" t="n">
-        <v>981.7708084844935</v>
+        <v>972.8248881390361</v>
       </c>
       <c r="E2" t="n">
-        <v>555.7938686323511</v>
+        <v>546.8479482868937</v>
       </c>
       <c r="F2" t="n">
-        <v>130.6696868217513</v>
+        <v>121.7237664762939</v>
       </c>
       <c r="G2" t="n">
-        <v>130.6696868217513</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="M2" t="n">
-        <v>2059.098288819458</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N2" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W2" t="n">
-        <v>1828.519902762723</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X2" t="n">
-        <v>1828.519902762723</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y2" t="n">
-        <v>1828.519902762723</v>
+        <v>1819.573982417266</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133208</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308255</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>762.0012509461105</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>657.2993172190478</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>563.653486901952</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>469.599715119556</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>423.6702648437774</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>695.3677541233685</v>
       </c>
       <c r="K3" t="n">
-        <v>866.8612493132769</v>
+        <v>695.3677541233685</v>
       </c>
       <c r="L3" t="n">
-        <v>866.8612493132769</v>
+        <v>1128.080930530455</v>
       </c>
       <c r="M3" t="n">
-        <v>1417.526784297715</v>
+        <v>1678.746465514893</v>
       </c>
       <c r="N3" t="n">
-        <v>1417.526784297715</v>
+        <v>1678.746465514893</v>
       </c>
       <c r="O3" t="n">
-        <v>1771.166545545054</v>
+        <v>1678.746465514893</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1678.746465514893</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>2142.891942377672</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.58700502363</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321308</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240945</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380211</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213428</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980091</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.7067844524004</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734055</v>
@@ -4507,31 +4509,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>2007.737591668685</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U4" t="n">
-        <v>1727.553143168989</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V4" t="n">
-        <v>1445.841675777018</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W4" t="n">
-        <v>1170.989271949531</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X4" t="n">
-        <v>1145.872753164466</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y4" t="n">
-        <v>1145.872753164466</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="5">
@@ -4544,67 +4546,67 @@
         <v>471.3989550359474</v>
       </c>
       <c r="C5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2050.465353945991</v>
       </c>
       <c r="V5" t="n">
-        <v>2104.695937904493</v>
+        <v>1692.97593907224</v>
       </c>
       <c r="W5" t="n">
-        <v>1708.30458820484</v>
+        <v>1296.584589372587</v>
       </c>
       <c r="X5" t="n">
         <v>1296.584589372587</v>
@@ -4626,37 +4628,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F6" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336857</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="L6" t="n">
-        <v>1145.829295018124</v>
+        <v>602.6104029955973</v>
       </c>
       <c r="M6" t="n">
-        <v>1696.494830002562</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N6" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
         <v>1853.185855629757</v>
@@ -4720,7 +4722,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4732,37 +4734,37 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1774.591756481816</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1774.591756481816</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1774.591756481816</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
         <v>1544.188084595808</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169.998286800764</v>
+        <v>1407.853983585013</v>
       </c>
       <c r="C8" t="n">
-        <v>1169.998286800764</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D8" t="n">
-        <v>746.7056659857641</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E8" t="n">
-        <v>746.7056659857641</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>572.914647509062</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L8" t="n">
-        <v>1123.5801824935</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M8" t="n">
-        <v>1674.245717477938</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N8" t="n">
-        <v>2224.911252462377</v>
+        <v>957.767218850581</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U8" t="n">
-        <v>1995.183921137404</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V8" t="n">
-        <v>1995.183921137404</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W8" t="n">
-        <v>1995.183921137404</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.183921137404</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y8" t="n">
-        <v>1589.846651092294</v>
+        <v>1407.853983585013</v>
       </c>
     </row>
     <row r="9">
@@ -4863,40 +4865,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F9" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>602.6104029955973</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N9" t="n">
+        <v>751.8547856608814</v>
+      </c>
+      <c r="O9" t="n">
         <v>1302.520320645319</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>96.60472747782725</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4966,7 +4968,7 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736632</v>
       </c>
       <c r="M10" t="n">
         <v>1074.392270743914</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>781.6025372422929</v>
+        <v>129.7575605932199</v>
       </c>
       <c r="C11" t="n">
-        <v>781.6025372422929</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D11" t="n">
-        <v>781.6025372422929</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E11" t="n">
-        <v>781.6025372422929</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F11" t="n">
-        <v>781.6025372422929</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G11" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H11" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>44.49822504924753</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L11" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M11" t="n">
-        <v>595.1637600336857</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="N11" t="n">
-        <v>1006.023847611597</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="O11" t="n">
-        <v>1556.689382596036</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P11" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T11" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U11" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V11" t="n">
-        <v>1646.496266633259</v>
+        <v>1763.054543461765</v>
       </c>
       <c r="W11" t="n">
-        <v>1646.496266633259</v>
+        <v>1366.663193762112</v>
       </c>
       <c r="X11" t="n">
-        <v>1234.776267801006</v>
+        <v>954.9431949298596</v>
       </c>
       <c r="Y11" t="n">
-        <v>829.4389977558968</v>
+        <v>549.6059248847499</v>
       </c>
     </row>
     <row r="12">
@@ -5100,46 +5102,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F12" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I12" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J12" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K12" t="n">
-        <v>756.3555336978366</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="L12" t="n">
-        <v>1307.021068682275</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.021068682275</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.021068682275</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O12" t="n">
-        <v>1307.021068682275</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P12" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q12" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R12" t="n">
         <v>1853.185855629757</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>717.8575411161469</v>
+        <v>839.1397001855339</v>
       </c>
       <c r="C13" t="n">
-        <v>545.8849779950629</v>
+        <v>667.1671370644499</v>
       </c>
       <c r="D13" t="n">
-        <v>382.5682051218336</v>
+        <v>548.8251748276014</v>
       </c>
       <c r="E13" t="n">
-        <v>216.3599992746871</v>
+        <v>382.6169689804549</v>
       </c>
       <c r="F13" t="n">
-        <v>44.49822504924753</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G13" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H13" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J13" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K13" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L13" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M13" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O13" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P13" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q13" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2213.678494411819</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2213.678494411819</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T13" t="n">
-        <v>2213.678494411819</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U13" t="n">
-        <v>1933.494045912124</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="V13" t="n">
-        <v>1651.782578520152</v>
+        <v>1773.064737589539</v>
       </c>
       <c r="W13" t="n">
-        <v>1376.930174692665</v>
+        <v>1498.212333762052</v>
       </c>
       <c r="X13" t="n">
-        <v>1134.366278138471</v>
+        <v>1255.648437207858</v>
       </c>
       <c r="Y13" t="n">
-        <v>908.0235098282126</v>
+        <v>1029.3056688976</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1745.792697513689</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="C14" t="n">
-        <v>1318.891967526989</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D14" t="n">
-        <v>895.5993467119897</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E14" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J14" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K14" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L14" t="n">
-        <v>407.101683866143</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M14" t="n">
-        <v>407.101683866143</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="N14" t="n">
-        <v>549.9383681074144</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O14" t="n">
-        <v>1100.603903091853</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P14" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q14" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U14" t="n">
-        <v>2103.28211238744</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="V14" t="n">
-        <v>1745.792697513689</v>
+        <v>1701.879134248295</v>
       </c>
       <c r="W14" t="n">
-        <v>1745.792697513689</v>
+        <v>1305.487784548642</v>
       </c>
       <c r="X14" t="n">
-        <v>1745.792697513689</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="Y14" t="n">
-        <v>1745.792697513689</v>
+        <v>893.7677857163897</v>
       </c>
     </row>
     <row r="15">
@@ -5337,40 +5339,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F15" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K15" t="n">
-        <v>44.49822504924753</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="L15" t="n">
-        <v>44.49822504924753</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M15" t="n">
-        <v>201.1892506764427</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N15" t="n">
-        <v>751.8547856608809</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O15" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P15" t="n">
         <v>1853.185855629757</v>
@@ -5431,7 +5433,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5458,16 +5460,16 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R16" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T16" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U16" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V16" t="n">
         <v>2061.60438497749</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1745.792697513689</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="C17" t="n">
-        <v>1318.891967526989</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D17" t="n">
-        <v>895.5993467119897</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E17" t="n">
-        <v>469.6224068598473</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L17" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M17" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="N17" t="n">
-        <v>1696.494830002562</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O17" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P17" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q17" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462377</v>
+        <v>2128.56829998265</v>
       </c>
       <c r="X17" t="n">
-        <v>2165.64106180522</v>
+        <v>2128.56829998265</v>
       </c>
       <c r="Y17" t="n">
-        <v>2165.64106180522</v>
+        <v>1723.231029937541</v>
       </c>
     </row>
     <row r="18">
@@ -5574,37 +5576,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F18" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K18" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L18" t="n">
-        <v>201.1892506764427</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M18" t="n">
-        <v>751.8547856608809</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N18" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O18" t="n">
         <v>1853.185855629757</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>315.615903911738</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C19" t="n">
-        <v>143.643340790654</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D19" t="n">
-        <v>143.643340790654</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E19" t="n">
-        <v>143.643340790654</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F19" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G19" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5698,25 +5700,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S19" t="n">
-        <v>2054.776204981511</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T19" t="n">
-        <v>1811.43685720741</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U19" t="n">
-        <v>1531.252408707715</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V19" t="n">
-        <v>1249.540941315744</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W19" t="n">
-        <v>974.6885374882565</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X19" t="n">
-        <v>732.1246409340616</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y19" t="n">
-        <v>505.7818726238037</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I20" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M20" t="n">
-        <v>2110.0395278175</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805612</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>887.3827134031578</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>669.4262044372838</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C21" t="n">
-        <v>551.9203009547886</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>448.0803424700736</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E21" t="n">
-        <v>343.3784087430108</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F21" t="n">
-        <v>249.7325784259149</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L21" t="n">
-        <v>692.7876399741681</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="M21" t="n">
-        <v>692.7876399741681</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N21" t="n">
-        <v>692.7876399741681</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R21" t="n">
-        <v>1910.990343986338</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S21" t="n">
-        <v>1829.666096547593</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T21" t="n">
-        <v>1687.786160845271</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U21" t="n">
-        <v>1503.017964764908</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V21" t="n">
-        <v>1298.044825904174</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W21" t="n">
-        <v>1101.523448737391</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X21" t="n">
-        <v>938.0461025040541</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y21" t="n">
-        <v>798.3532138573465</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>517.8401132784822</v>
+        <v>675.9169201046687</v>
       </c>
       <c r="C22" t="n">
-        <v>345.8675501573982</v>
+        <v>503.9443569835847</v>
       </c>
       <c r="D22" t="n">
-        <v>345.8675501573982</v>
+        <v>503.9443569835847</v>
       </c>
       <c r="E22" t="n">
-        <v>345.8675501573982</v>
+        <v>337.7361511364383</v>
       </c>
       <c r="F22" t="n">
-        <v>345.8675501573982</v>
+        <v>165.8743769109987</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y22" t="n">
-        <v>517.8401132784822</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6063,25 +6065,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>692.7876399741681</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>692.7876399741681</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M24" t="n">
-        <v>692.7876399741681</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N24" t="n">
-        <v>692.7876399741681</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O24" t="n">
-        <v>730.647150085061</v>
+        <v>1270.928123658803</v>
       </c>
       <c r="P24" t="n">
         <v>1446.844867123559</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3918.135197142812</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C25" t="n">
-        <v>3746.162634021728</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D25" t="n">
-        <v>3582.845861148498</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E25" t="n">
-        <v>3416.637655301352</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>3244.775881075912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>5115.135670291427</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U25" t="n">
-        <v>4834.951221791732</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V25" t="n">
-        <v>4834.951221791732</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W25" t="n">
-        <v>4577.207830719331</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X25" t="n">
-        <v>4334.643934165136</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y25" t="n">
-        <v>4108.301165854878</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E26" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H26" t="n">
         <v>137.1995846623573</v>
@@ -6224,52 +6226,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K26" t="n">
-        <v>195.4640539534684</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L26" t="n">
-        <v>1125.089101572745</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991803</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>786.1193363033792</v>
+        <v>769.9464360574117</v>
       </c>
       <c r="C28" t="n">
-        <v>614.1467731822952</v>
+        <v>769.9464360574117</v>
       </c>
       <c r="D28" t="n">
-        <v>450.8300003090659</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E28" t="n">
-        <v>284.6217944619194</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F28" t="n">
-        <v>284.6217944619194</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
-        <v>118.3648247561516</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6382,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6412,22 +6414,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>2039.424621042826</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.191944545161</v>
+        <v>1759.24017254313</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.48047715319</v>
+        <v>1477.528705151159</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.628073325703</v>
+        <v>1202.676301323672</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.628073325703</v>
+        <v>960.1124047694773</v>
       </c>
       <c r="Y28" t="n">
-        <v>976.2853050154449</v>
+        <v>960.1124047694773</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3114.325629236558</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O29" t="n">
-        <v>3959.47027938737</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P29" t="n">
-        <v>4667.749558545297</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6542,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1429.986740661465</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3158.801708427964</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C31" t="n">
-        <v>2986.82914530688</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D31" t="n">
-        <v>2934.722642878299</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E31" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.43821322394</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831969</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>3817.874342004482</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>3575.310445450287</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>3348.967677140029</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6716,19 +6718,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6777,25 +6779,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D34" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E34" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.544449335636</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>5115.135670291427</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>5115.135670291427</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>4951.828802806542</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>4676.976398979054</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X34" t="n">
-        <v>4434.41250242486</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="Y34" t="n">
-        <v>4208.069734114601</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6925,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883225</v>
@@ -6935,7 +6937,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
@@ -6944,22 +6946,22 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
         <v>5010.768376164567</v>
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.241345563992</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.529878172021</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.529878172021</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X37" t="n">
-        <v>1587.529878172021</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>366.6855125151242</v>
       </c>
       <c r="K38" t="n">
-        <v>464.9061722227241</v>
+        <v>1082.193820490623</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>3934.79247639015</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>3934.79247639015</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>3934.79247639015</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
-        <v>3934.79247639015</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>4650.990193428648</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1085.715267670341</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>913.7427045492574</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>750.4259316760281</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>584.2177258288816</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1832.396244838396</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1832.396244838396</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W40" t="n">
-        <v>1557.543841010909</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X40" t="n">
-        <v>1502.224004692665</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.881236382407</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
         <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7409,52 +7411,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>3444.155406100784</v>
       </c>
       <c r="O41" t="n">
-        <v>4406.8563911335</v>
+        <v>4289.300056251596</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7493,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M42" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N42" t="n">
-        <v>1021.509065974867</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1185.483835930065</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808982</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357522</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7594,25 +7596,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>2235.67712750613</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X43" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y43" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1322.50007669869</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>895.5993467119897</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>895.5993467119897</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>469.6224068598473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>44.49822504924753</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>44.49822504924753</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924753</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>407.101683866143</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>957.7672188505812</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L44" t="n">
-        <v>957.7672188505812</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M44" t="n">
-        <v>1100.603903091853</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N44" t="n">
-        <v>1100.603903091853</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O44" t="n">
-        <v>1100.603903091853</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P44" t="n">
-        <v>1651.269438076291</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q44" t="n">
-        <v>2107.354917580474</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>2224.911252462377</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>2224.911252462377</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>2154.068439822473</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2154.068439822473</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2154.068439822473</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>1742.34844099022</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1742.34844099022</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>44.49822504924753</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L45" t="n">
-        <v>595.1637600336857</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M45" t="n">
-        <v>751.8547856608809</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N45" t="n">
-        <v>751.8547856608809</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O45" t="n">
-        <v>1302.520320645319</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1127.679347573484</v>
+        <v>929.9842634877775</v>
       </c>
       <c r="C46" t="n">
-        <v>955.7067844524004</v>
+        <v>758.0117003666935</v>
       </c>
       <c r="D46" t="n">
-        <v>792.3900115791711</v>
+        <v>594.6949274934642</v>
       </c>
       <c r="E46" t="n">
-        <v>626.1818057320246</v>
+        <v>428.4867216463177</v>
       </c>
       <c r="F46" t="n">
-        <v>454.3200315065851</v>
+        <v>256.6249474208781</v>
       </c>
       <c r="G46" t="n">
-        <v>288.0630618008172</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>144.2667933089716</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.883781619951</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299714</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221615</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462377</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2224.911252462377</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2224.911252462377</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>2224.911252462377</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>2224.911252462377</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>2061.60438497749</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W46" t="n">
-        <v>1786.751981150003</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="X46" t="n">
-        <v>1544.188084595808</v>
+        <v>1346.493000510101</v>
       </c>
       <c r="Y46" t="n">
-        <v>1317.84531628555</v>
+        <v>1120.150232199843</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>548.8576414812758</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N2" t="n">
-        <v>86.02369229001789</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870443</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>380.3837697700394</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039383</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M5" t="n">
-        <v>300.4545145390017</v>
+        <v>86.17533235500345</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,25 +8291,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>173.8486821944331</v>
       </c>
       <c r="N6" t="n">
-        <v>179.6167914733347</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8380,7 +8382,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>417.7126065281034</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>569.51856287543</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876108</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>173.2669883963347</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3705437721212</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8614,7 +8616,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>380.1908016072373</v>
+        <v>380.1908016072371</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L11" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N11" t="n">
-        <v>452.2898123070841</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716183</v>
+        <v>204.8788014195786</v>
       </c>
       <c r="P11" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>459.4832504061476</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L12" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>463.1564485244923</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8784,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N14" t="n">
-        <v>181.5591018660332</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716183</v>
+        <v>452.4011488286619</v>
       </c>
       <c r="P14" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9003,25 +9005,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>462.5747547263938</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3705437721211</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9167,16 +9169,16 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N17" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O17" t="n">
-        <v>452.4011488286621</v>
+        <v>571.1449214366444</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
@@ -9185,7 +9187,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,19 +9245,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L18" t="n">
-        <v>180.7888499740227</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M18" t="n">
-        <v>579.3245936279221</v>
+        <v>181.3705437721217</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9398,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N20" t="n">
-        <v>924.1790155406098</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>548.1209608588841</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9480,22 +9482,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>180.7888499740234</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O21" t="n">
-        <v>530.2476341400729</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9729,10 +9731,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>61.41381912716452</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>199.4645214722588</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>129.8669649843445</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>362.1014486857551</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10121,7 +10123,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>394.7585026918607</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10130,7 +10132,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>488.0298379845275</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10188,7 +10190,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>507.2052537942219</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>124.3756766890872</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10425,7 +10427,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10434,7 +10436,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>1121.661155963915</v>
@@ -10446,7 +10448,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>474.9442047819572</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10592,19 +10594,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>296.4732919192185</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10905,22 +10907,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>657.2064368952714</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11069,10 +11071,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>736.7071336234576</v>
       </c>
       <c r="O41" t="n">
-        <v>356.8654072451563</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11081,7 +11083,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11141,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>408.0034988235887</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>181.710741931019</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>593.8031749258255</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>472.1756697257294</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11376,22 +11378,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>181.3705437721212</v>
+        <v>530.1725249301787</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>577.9986543204228</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -11464,7 +11466,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160413</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
@@ -22559,10 +22561,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>323.8423857736699</v>
       </c>
       <c r="H2" t="n">
-        <v>209.5799475859268</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22607,13 +22609,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>63.52994056050454</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22768,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>215.2729039914389</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22838,16 +22840,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>83.06992077833101</v>
       </c>
       <c r="V5" t="n">
-        <v>234.9013593127082</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22987,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>12.03862242150529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>334.5593267893892</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23075,7 +23077,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>28.34130229782861</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -23084,7 +23086,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23182,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>115.7088052046616</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>368.2917847401469</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>338.2249804983002</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -23270,13 +23272,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -23318,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>44.52506253001695</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.44779670964706</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -23549,16 +23551,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>135.3585116353647</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>91.88408400262557</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -23710,7 +23712,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>163.7887810877128</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -23792,13 +23794,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>297.0479132477286</v>
       </c>
       <c r="X17" t="n">
-        <v>348.9253100933448</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23899,7 +23901,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>71.98949189919276</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23938,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>316.1505655932374</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24133,19 +24135,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>44.43200966557653</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.279441954814871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24415,16 +24417,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>59.64236734312274</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>16.93792262753493</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>126.4568155701074</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24652,7 +24654,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.04774571798938609</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080147</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>223.1654625669719</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>106.2105945228213</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>14.31806783256491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>185.3716196335912</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>185.6369757960469</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>11.81538833381106</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,19 +26073,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.2205539080134</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>475114.4045281125</v>
+        <v>475114.4045281124</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>475114.4045281124</v>
+        <v>475114.4045281123</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>475114.4045281125</v>
+        <v>475114.4045281124</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>475114.4045281123</v>
+        <v>475114.4045281124</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>475114.4045281125</v>
+        <v>475114.4045281124</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>788169.3309901656</v>
+        <v>475114.4045281124</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>788169.3309901658</v>
+        <v>788169.3309901657</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>788169.3309901657</v>
+        <v>788169.3309901658</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>475114.4045281124</v>
+        <v>788169.3309901657</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160941.581932267</v>
+        <v>160941.5819322669</v>
       </c>
       <c r="C2" t="n">
         <v>160941.581932267</v>
@@ -26326,34 +26328,34 @@
         <v>160941.581932267</v>
       </c>
       <c r="G2" t="n">
+        <v>160941.5819322669</v>
+      </c>
+      <c r="H2" t="n">
         <v>160941.581932267</v>
-      </c>
-      <c r="H2" t="n">
-        <v>266964.4414902874</v>
       </c>
       <c r="I2" t="n">
         <v>266964.4414902873</v>
       </c>
       <c r="J2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="K2" t="n">
         <v>266964.4414902873</v>
       </c>
       <c r="L2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="M2" t="n">
         <v>266964.4414902874</v>
       </c>
       <c r="N2" t="n">
-        <v>266964.4414902874</v>
+        <v>266964.4414902873</v>
       </c>
       <c r="O2" t="n">
         <v>266964.4414902874</v>
       </c>
       <c r="P2" t="n">
-        <v>160941.581932267</v>
+        <v>266964.4414902874</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>194952.1399875096</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>192142.8418533797</v>
       </c>
       <c r="J3" t="n">
         <v>145533.6699348165</v>
@@ -26418,46 +26420,46 @@
         <v>43571.76943387372</v>
       </c>
       <c r="C4" t="n">
-        <v>43571.76943387373</v>
+        <v>43571.76943387372</v>
       </c>
       <c r="D4" t="n">
-        <v>43571.76943387373</v>
+        <v>43571.76943387372</v>
       </c>
       <c r="E4" t="n">
-        <v>43571.76943387373</v>
+        <v>43571.76943387371</v>
       </c>
       <c r="F4" t="n">
-        <v>43571.76943387372</v>
+        <v>43571.76943387371</v>
       </c>
       <c r="G4" t="n">
         <v>43571.76943387372</v>
       </c>
       <c r="H4" t="n">
-        <v>72380.62724986373</v>
+        <v>43571.76943387372</v>
       </c>
       <c r="I4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="J4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="K4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="L4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="M4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="N4" t="n">
+        <v>72380.6272498637</v>
+      </c>
+      <c r="O4" t="n">
+        <v>72380.6272498637</v>
+      </c>
+      <c r="P4" t="n">
         <v>72380.62724986371</v>
-      </c>
-      <c r="O4" t="n">
-        <v>72380.62724986373</v>
-      </c>
-      <c r="P4" t="n">
-        <v>43571.76943387373</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136481.1719537721</v>
+        <v>-136481.171953772</v>
       </c>
       <c r="C6" t="n">
-        <v>49923.56146096514</v>
+        <v>49923.56146096518</v>
       </c>
       <c r="D6" t="n">
-        <v>49923.56146096511</v>
+        <v>49923.56146096515</v>
       </c>
       <c r="E6" t="n">
+        <v>83551.16146096519</v>
+      </c>
+      <c r="F6" t="n">
+        <v>83551.16146096516</v>
+      </c>
+      <c r="G6" t="n">
         <v>83551.16146096512</v>
       </c>
-      <c r="F6" t="n">
-        <v>83551.16146096513</v>
-      </c>
-      <c r="G6" t="n">
-        <v>83551.16146096513</v>
-      </c>
       <c r="H6" t="n">
-        <v>-78118.38793551565</v>
+        <v>83551.16146096517</v>
       </c>
       <c r="I6" t="n">
-        <v>116833.7520519939</v>
+        <v>-75309.08980138581</v>
       </c>
       <c r="J6" t="n">
-        <v>-28699.9178828226</v>
+        <v>-28699.91788282247</v>
       </c>
       <c r="K6" t="n">
         <v>116833.7520519939</v>
       </c>
       <c r="L6" t="n">
-        <v>116833.7520519939</v>
+        <v>116833.752051994</v>
       </c>
       <c r="M6" t="n">
         <v>116833.752051994</v>
       </c>
       <c r="N6" t="n">
-        <v>116833.752051994</v>
+        <v>116833.7520519939</v>
       </c>
       <c r="O6" t="n">
-        <v>116833.752051994</v>
+        <v>116833.7520519941</v>
       </c>
       <c r="P6" t="n">
-        <v>83551.16146096517</v>
+        <v>116833.7520519941</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26829,7 +26831,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>722.5561044572627</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486529</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N2" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>437.0840165728148</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>357.2118800478172</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M5" t="n">
-        <v>263.0232516395698</v>
+        <v>48.74406945557163</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,25 +35011,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>150.7519016821051</v>
       </c>
       <c r="N6" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35100,7 +35102,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>395.1371666366176</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>150.7519016821051</v>
       </c>
       <c r="M9" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,7 +35336,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115358</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N11" t="n">
-        <v>415.0101894726381</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="P11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>437.0840165728143</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N14" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155941</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="P14" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="M15" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35887,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O17" t="n">
-        <v>415.010189472638</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L18" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M18" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="N18" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N20" t="n">
-        <v>886.8993927061638</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>510.5455990486528</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O21" t="n">
-        <v>507.0757444178507</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36451,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>38.24192940494229</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>177.6936802674302</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>94.10236418953517</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>324.5260868755238</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36841,7 +36843,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>357.4788798574147</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36850,7 +36852,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>451.9051633799294</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>485.8622255806802</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>86.8003148788559</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>1100.318127750374</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>452.1971664929787</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,19 +37314,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>267.053332433632</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>634.6913501810418</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37789,10 +37791,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>699.4275107890115</v>
       </c>
       <c r="O41" t="n">
-        <v>319.4744478891323</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37801,7 +37803,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>144.2794790315872</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>556.2278131155941</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>436.0509951211314</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>158.2737632597932</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>556.2278131155941</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>381.3045564404409</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
         <v>359.0183117977405</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>358322.4066856088</v>
+        <v>354842.435593524</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707514</v>
+        <v>14046880.39707513</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901945</v>
+        <v>4671565.284901944</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -673,7 +673,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>76.45328601277593</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>218.5560090896485</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,16 +822,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>98.15366458399245</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>96.4442051068646</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -901,13 +901,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>24.1295862066223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>172.7014395312208</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>129.4960427840456</v>
       </c>
       <c r="C8" t="n">
-        <v>88.07239589744364</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1293,13 +1293,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1308,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>49.36794445217289</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>84.40674218853263</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1438,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>97.4152473417728</v>
       </c>
     </row>
     <row r="12">
@@ -1533,16 +1533,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>117.15854261448</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>206.9048608188589</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>293.1607298358932</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>262.0304367223874</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>234.0828457590626</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>95.37952295492796</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>116.2748171257522</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>96.44420510686383</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>104.7223743992564</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2134,10 +2134,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2146,10 +2146,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>177.9261526099635</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>120.1623903431337</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -2575,7 +2575,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>43.70950697100926</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.8582085783696</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2781,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>96.44420510686395</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3040,7 +3040,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
@@ -3082,7 +3082,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
         <v>255.7713603095518</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3252,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>16.97279502168107</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>134.6953597735377</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>106.858786719141</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.54790254396345</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>152.7790116748991</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4194,10 +4194,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1399.725618125736</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C2" t="n">
-        <v>972.8248881390361</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D2" t="n">
-        <v>972.8248881390361</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E2" t="n">
-        <v>546.8479482868937</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F2" t="n">
-        <v>121.7237664762939</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>549.9383681074139</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M2" t="n">
-        <v>1100.603903091852</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091852</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462376</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462376</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="X2" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="Y2" t="n">
-        <v>1819.573982417266</v>
+        <v>1745.792697513689</v>
       </c>
     </row>
     <row r="3">
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133208</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308255</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461105</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190478</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F3" t="n">
-        <v>563.653486901952</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G3" t="n">
-        <v>469.599715119556</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818656</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I3" t="n">
-        <v>423.6702648437774</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J3" t="n">
-        <v>695.3677541233685</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="K3" t="n">
-        <v>695.3677541233685</v>
+        <v>1246.033289107808</v>
       </c>
       <c r="L3" t="n">
-        <v>1128.080930530455</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="M3" t="n">
-        <v>1678.746465514893</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="N3" t="n">
-        <v>1678.746465514893</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="O3" t="n">
-        <v>1678.746465514893</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="P3" t="n">
-        <v>1678.746465514893</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377672</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.58700502363</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321308</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240945</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380211</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213428</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980091</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y3" t="n">
         <v>1112.274122333384</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315.615903911738</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C4" t="n">
-        <v>143.643340790654</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D4" t="n">
-        <v>44.49822504924752</v>
+        <v>313.77838827152</v>
       </c>
       <c r="E4" t="n">
-        <v>44.49822504924752</v>
+        <v>313.77838827152</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924752</v>
+        <v>141.9166140460805</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734055</v>
@@ -4503,37 +4503,37 @@
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1811.43685720741</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>1531.252408707715</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V4" t="n">
-        <v>1249.540941315744</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W4" t="n">
-        <v>974.6885374882565</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X4" t="n">
-        <v>732.1246409340616</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y4" t="n">
-        <v>505.7818726238037</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>471.3989550359474</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C5" t="n">
-        <v>44.49822504924752</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D5" t="n">
-        <v>44.49822504924752</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E5" t="n">
-        <v>44.49822504924752</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.767218850581</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="M5" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="N5" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="O5" t="n">
         <v>1508.432753835019</v>
       </c>
-      <c r="M5" t="n">
-        <v>1556.689382596035</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2107.354917580473</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2107.354917580473</v>
-      </c>
       <c r="P5" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="U5" t="n">
-        <v>2050.465353945991</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="V5" t="n">
-        <v>1692.97593907224</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="W5" t="n">
-        <v>1296.584589372587</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="X5" t="n">
-        <v>1296.584589372587</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="Y5" t="n">
-        <v>891.2473193274775</v>
+        <v>2200.537933061748</v>
       </c>
     </row>
     <row r="6">
@@ -4628,46 +4628,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115936</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115936</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>602.6104029955973</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608814</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T7" t="n">
-        <v>2177.872639149549</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U7" t="n">
-        <v>2177.872639149549</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V7" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1407.853983585013</v>
+        <v>1172.682605837907</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.891967526989</v>
+        <v>1172.682605837907</v>
       </c>
       <c r="D8" t="n">
-        <v>895.5993467119897</v>
+        <v>1172.682605837907</v>
       </c>
       <c r="E8" t="n">
-        <v>469.6224068598473</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F8" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.767218850581</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L8" t="n">
-        <v>957.767218850581</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M8" t="n">
-        <v>957.767218850581</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N8" t="n">
-        <v>957.767218850581</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091852</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.191253630123</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y8" t="n">
-        <v>1407.853983585013</v>
+        <v>1303.486689458155</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>602.6104029955973</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>751.8547856608814</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608814</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608814</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>595.8003524114347</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>595.8003524114347</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>432.4835795382054</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>432.4835795382054</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>260.6218053127658</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>94.36483560699793</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>94.36483560699793</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736632</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M10" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O10" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P10" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U10" t="n">
-        <v>2061.60438497749</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1529.72538981544</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>1254.872985987953</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>1012.309089433758</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>785.9663211235003</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>129.7575605932199</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="C11" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D11" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E11" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J11" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L11" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M11" t="n">
-        <v>2059.098288819457</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N11" t="n">
-        <v>2059.098288819457</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O11" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T11" t="n">
-        <v>2120.543958335516</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U11" t="n">
-        <v>2120.543958335516</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V11" t="n">
-        <v>1763.054543461765</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W11" t="n">
-        <v>1366.663193762112</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X11" t="n">
-        <v>954.9431949298596</v>
+        <v>475.662714570906</v>
       </c>
       <c r="Y11" t="n">
-        <v>549.6059248847499</v>
+        <v>377.2634748317415</v>
       </c>
     </row>
     <row r="12">
@@ -5102,46 +5102,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J12" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K12" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L12" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N12" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O12" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P12" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q12" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R12" t="n">
         <v>1853.185855629757</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>839.1397001855339</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C13" t="n">
-        <v>667.1671370644499</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D13" t="n">
-        <v>548.8251748276014</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E13" t="n">
-        <v>382.6169689804549</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F13" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5229,22 +5229,22 @@
         <v>2054.776204981511</v>
       </c>
       <c r="T13" t="n">
-        <v>2054.776204981511</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U13" t="n">
-        <v>2054.776204981511</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V13" t="n">
-        <v>1773.064737589539</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.212333762052</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X13" t="n">
-        <v>1255.648437207858</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.3056688976</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>893.7677857163897</v>
+        <v>1099.362364013069</v>
       </c>
       <c r="C14" t="n">
-        <v>893.7677857163897</v>
+        <v>1099.362364013069</v>
       </c>
       <c r="D14" t="n">
-        <v>470.47516490139</v>
+        <v>1099.362364013069</v>
       </c>
       <c r="E14" t="n">
-        <v>44.49822504924752</v>
+        <v>673.3854241609266</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L14" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M14" t="n">
-        <v>1696.494830002561</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N14" t="n">
-        <v>1696.494830002561</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O14" t="n">
-        <v>2107.354917580473</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P14" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q14" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U14" t="n">
-        <v>1966.556343058788</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V14" t="n">
-        <v>1701.879134248295</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W14" t="n">
-        <v>1305.487784548642</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="X14" t="n">
-        <v>893.7677857163897</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="Y14" t="n">
-        <v>893.7677857163897</v>
+        <v>1099.362364013069</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>866.8612493132766</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L15" t="n">
-        <v>1302.520320645319</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M15" t="n">
-        <v>1853.185855629757</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N15" t="n">
-        <v>1853.185855629757</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O15" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P15" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R15" t="n">
         <v>1853.185855629757</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C16" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D16" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5463,25 +5463,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T16" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U16" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V16" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W16" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X16" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y16" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1723.231029937541</v>
+        <v>1037.003414595289</v>
       </c>
       <c r="C17" t="n">
-        <v>1723.231029937541</v>
+        <v>800.5560956467413</v>
       </c>
       <c r="D17" t="n">
-        <v>1299.938409122541</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E17" t="n">
-        <v>873.9614692703988</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F17" t="n">
-        <v>448.8372874597989</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L17" t="n">
-        <v>595.1637600336854</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M17" t="n">
-        <v>1145.829295018124</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N17" t="n">
-        <v>1696.494830002561</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O17" t="n">
-        <v>2224.911252462376</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W17" t="n">
-        <v>2128.56829998265</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="X17" t="n">
-        <v>2128.56829998265</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="Y17" t="n">
-        <v>1723.231029937541</v>
+        <v>1456.851778886819</v>
       </c>
     </row>
     <row r="18">
@@ -5576,46 +5576,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K18" t="n">
-        <v>595.1637600336854</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L18" t="n">
-        <v>1145.829295018124</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.520320645319</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N18" t="n">
-        <v>1853.185855629757</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O18" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P18" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q18" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R18" t="n">
         <v>1853.185855629757</v>
@@ -5661,16 +5661,16 @@
         <v>216.3599992746871</v>
       </c>
       <c r="F19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5700,25 +5700,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S19" t="n">
-        <v>2127.492863465543</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T19" t="n">
-        <v>1884.153515691443</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U19" t="n">
-        <v>1603.969067191748</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V19" t="n">
-        <v>1322.257599799776</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W19" t="n">
-        <v>1047.405195972289</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X19" t="n">
-        <v>804.8412994180946</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y19" t="n">
-        <v>578.4985311078367</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>887.3827134031578</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="C20" t="n">
-        <v>887.3827134031578</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D20" t="n">
-        <v>887.3827134031578</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E20" t="n">
-        <v>887.3827134031578</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F20" t="n">
-        <v>781.6025372422928</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G20" t="n">
         <v>377.2634748317415</v>
       </c>
       <c r="H20" t="n">
-        <v>79.39509630577631</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L20" t="n">
-        <v>44.49822504924752</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M20" t="n">
-        <v>595.1637600336854</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N20" t="n">
-        <v>595.1637600336854</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O20" t="n">
-        <v>1145.829295018124</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P20" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T20" t="n">
-        <v>1899.618387380149</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U20" t="n">
-        <v>1641.263477976561</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V20" t="n">
-        <v>1283.774063102811</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W20" t="n">
-        <v>887.3827134031578</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X20" t="n">
-        <v>887.3827134031578</v>
+        <v>1186.939807287403</v>
       </c>
       <c r="Y20" t="n">
-        <v>887.3827134031578</v>
+        <v>781.6025372422929</v>
       </c>
     </row>
     <row r="21">
@@ -5813,34 +5813,34 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L21" t="n">
-        <v>201.1892506764434</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M21" t="n">
-        <v>751.8547856608814</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N21" t="n">
         <v>1302.520320645319</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>675.9169201046687</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C22" t="n">
-        <v>503.9443569835847</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D22" t="n">
-        <v>503.9443569835847</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E22" t="n">
-        <v>337.7361511364383</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F22" t="n">
-        <v>165.8743769109987</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
         <v>101.9895532734055</v>
@@ -5937,25 +5937,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T22" t="n">
-        <v>1981.571904688275</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U22" t="n">
-        <v>1701.38745618858</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V22" t="n">
-        <v>1419.675988796609</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.823584969122</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X22" t="n">
-        <v>902.2596884149267</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y22" t="n">
-        <v>675.9169201046687</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596601</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747413</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6071,25 +6071,25 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>381.4468456473314</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="L24" t="n">
-        <v>381.4468456473314</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="M24" t="n">
-        <v>381.4468456473314</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N24" t="n">
-        <v>381.4468456473314</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O24" t="n">
-        <v>1270.928123658803</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>603.8002552472883</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>431.8276921262043</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>268.510919252975</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6147,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2099.621208542961</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1819.436760043265</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1537.725292651294</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.872888823807</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1020.308992269612</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>793.966223959354</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
         <v>137.1995846623573</v>
@@ -6226,52 +6226,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3375.06837974776</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O26" t="n">
-        <v>4220.213029898572</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X26" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>769.9464360574117</v>
+        <v>653.604840768015</v>
       </c>
       <c r="C28" t="n">
-        <v>769.9464360574117</v>
+        <v>481.632277646931</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841824</v>
+        <v>318.3155047737017</v>
       </c>
       <c r="E28" t="n">
-        <v>440.4214573370359</v>
+        <v>318.3155047737017</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>146.4537305482621</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>146.4537305482621</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.424621042826</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.24017254313</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.528705151159</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.676301323672</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X28" t="n">
-        <v>960.1124047694773</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y28" t="n">
-        <v>960.1124047694773</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3105.626261478503</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6505,7 +6505,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
         <v>2960.549862354846</v>
@@ -6542,28 +6542,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.5554397491844</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>371.5828766281004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>371.5828766281004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
         <v>274.1644876312681</v>
@@ -6621,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>960.064176771508</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.72140846125</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F32" t="n">
         <v>839.4070255988738</v>
@@ -6700,52 +6700,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>374.0002026854196</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>374.0002026854196</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M33" t="n">
-        <v>374.0002026854196</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N33" t="n">
-        <v>1463.315149158289</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1185.483835930065</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1185.483835930065</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
@@ -6949,40 +6949,40 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>971.931772215671</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L36" t="n">
-        <v>971.931772215671</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M36" t="n">
-        <v>971.931772215671</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N36" t="n">
-        <v>971.931772215671</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O36" t="n">
-        <v>971.931772215671</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P36" t="n">
         <v>1364.825557038856</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>603.8002552472883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2099.621208542961</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1819.436760043265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1537.725292651294</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.872888823807</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1020.308992269612</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>793.966223959354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7174,31 +7174,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>366.6855125151242</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1082.193820490623</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.8188681099</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.8188681099</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
         <v>5010.768376164567</v>
@@ -7216,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7253,25 +7253,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1726.151869599499</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1483.587973045304</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3444.155406100784</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>4289.300056251596</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L42" t="n">
-        <v>1529.586448057074</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M42" t="n">
-        <v>1529.586448057074</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N42" t="n">
-        <v>1529.586448057074</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O42" t="n">
-        <v>1529.586448057074</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P42" t="n">
-        <v>1529.586448057074</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
         <v>102.3027134058285</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,49 +7636,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L44" t="n">
-        <v>1031.927761025105</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M44" t="n">
-        <v>2036.213862444163</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N44" t="n">
-        <v>3012.464920930865</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O44" t="n">
-        <v>3857.609571081677</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P44" t="n">
-        <v>4565.888850239604</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7727,25 +7727,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L45" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.79262694784</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N45" t="n">
-        <v>1194.79262694784</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O45" t="n">
-        <v>1194.79262694784</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P45" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
         <v>1910.990343986338</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.9842634877775</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>758.0117003666935</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D46" t="n">
-        <v>594.6949274934642</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E46" t="n">
-        <v>428.4867216463177</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F46" t="n">
-        <v>256.6249474208781</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G46" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="H46" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7833,25 +7833,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1589.056897064296</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1589.056897064296</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>1589.056897064296</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>1346.493000510101</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>1120.150232199843</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>548.8576414812758</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8060,13 +8060,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>459.5991032870443</v>
+        <v>459.5991032870441</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8151,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>381.5174992961657</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039383</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500345</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>173.8486821944331</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104032</v>
+        <v>298.7878524343791</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
@@ -8467,16 +8467,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>181.6704383876108</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,28 +8534,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>173.2669883963347</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378161</v>
+        <v>178.4700015426657</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204226</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,10 +8613,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L10" t="n">
-        <v>380.1908016072371</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8692,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L11" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150257</v>
+        <v>300.4545145390017</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O11" t="n">
-        <v>204.8788014195786</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>463.1564485244923</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>577.9986543204226</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L14" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>452.4011488286619</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>462.5747547263938</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L17" t="n">
-        <v>594.5398555482168</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>571.1449214366444</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>181.3705437721217</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>548.1209608588841</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L21" t="n">
-        <v>180.7888499740234</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378161</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>924.1790155406089</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>117.2451261364169</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9734,13 +9734,13 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
-        <v>199.4645214722588</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9886,13 +9886,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>362.1014486857551</v>
+        <v>625.4779643536372</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9953,28 +9953,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,10 +10120,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>394.7585026918607</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10135,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>124.3756766890872</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,25 +10430,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>80.1150227961563</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>474.9442047819572</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10597,7 +10597,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>924.1790155406089</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
@@ -10682,7 +10682,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>418.6332501171365</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>296.4732919192185</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10901,10 +10901,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10913,16 +10913,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11071,10 +11071,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>736.7071336234576</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11138,13 +11138,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11156,10 +11156,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q42" t="n">
-        <v>408.0034988235887</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
@@ -11317,10 +11317,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>472.1756697257294</v>
+        <v>224.6533223166459</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
@@ -11384,7 +11384,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>530.1725249301787</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11393,10 +11393,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>323.8423857736699</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22603,19 +22603,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>173.8714271130081</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22710,16 +22710,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.52994056050454</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>68.15019490184558</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -22755,7 +22755,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22789,13 +22789,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22804,7 +22804,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>79.19403497896869</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>83.06992077833101</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22947,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>286.1538378645691</v>
       </c>
       <c r="C8" t="n">
-        <v>334.5593267893892</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -23181,13 +23181,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>49.40293812495389</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>115.7088052046616</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>338.2249804983002</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -23275,10 +23275,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>303.8686500028858</v>
       </c>
     </row>
     <row r="12">
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>44.52506253001695</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>71.98949189919253</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23500,22 +23500,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>127.7122101566005</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>91.88408400262557</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>188.5488769277703</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>297.0479132477286</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>71.98949189919266</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>316.1505655932374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>229.6766462339667</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>44.43200966557653</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24414,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>98.64879883591789</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24651,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.04774571798938609</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,7 +24846,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>68.10191868181103</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>223.1654625669719</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>106.2105945228213</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>11.81538833381106</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>2.326677470262837</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>475114.4045281124</v>
+        <v>475114.4045281126</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>475114.4045281123</v>
+        <v>475114.4045281125</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>475114.4045281124</v>
+        <v>475114.4045281125</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>475114.4045281124</v>
+        <v>475114.4045281125</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>475114.4045281124</v>
+        <v>475114.4045281125</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>788169.3309901658</v>
+        <v>788169.3309901657</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>788169.3309901658</v>
+        <v>788169.3309901657</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>788169.3309901658</v>
+        <v>788169.3309901657</v>
       </c>
     </row>
     <row r="14">
@@ -26316,7 +26316,7 @@
         <v>160941.5819322669</v>
       </c>
       <c r="C2" t="n">
-        <v>160941.581932267</v>
+        <v>160941.5819322669</v>
       </c>
       <c r="D2" t="n">
         <v>160941.581932267</v>
@@ -26328,7 +26328,7 @@
         <v>160941.581932267</v>
       </c>
       <c r="G2" t="n">
-        <v>160941.5819322669</v>
+        <v>160941.581932267</v>
       </c>
       <c r="H2" t="n">
         <v>160941.581932267</v>
@@ -26337,10 +26337,10 @@
         <v>266964.4414902873</v>
       </c>
       <c r="J2" t="n">
+        <v>266964.4414902873</v>
+      </c>
+      <c r="K2" t="n">
         <v>266964.4414902874</v>
-      </c>
-      <c r="K2" t="n">
-        <v>266964.4414902873</v>
       </c>
       <c r="L2" t="n">
         <v>266964.4414902874</v>
@@ -26349,13 +26349,13 @@
         <v>266964.4414902874</v>
       </c>
       <c r="N2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="O2" t="n">
         <v>266964.4414902874</v>
       </c>
       <c r="P2" t="n">
-        <v>266964.4414902874</v>
+        <v>266964.4414902873</v>
       </c>
     </row>
     <row r="3">
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43571.76943387372</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="C4" t="n">
-        <v>43571.76943387372</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="D4" t="n">
-        <v>43571.76943387372</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="E4" t="n">
-        <v>43571.76943387371</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="F4" t="n">
-        <v>43571.76943387371</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="G4" t="n">
-        <v>43571.76943387372</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="H4" t="n">
-        <v>43571.76943387372</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="I4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="J4" t="n">
         <v>72380.62724986371</v>
@@ -26453,10 +26453,10 @@
         <v>72380.62724986371</v>
       </c>
       <c r="N4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="O4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="P4" t="n">
         <v>72380.62724986371</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136481.171953772</v>
+        <v>-137090.2176662618</v>
       </c>
       <c r="C6" t="n">
-        <v>49923.56146096518</v>
+        <v>49314.51574847539</v>
       </c>
       <c r="D6" t="n">
-        <v>49923.56146096515</v>
+        <v>49314.51574847547</v>
       </c>
       <c r="E6" t="n">
-        <v>83551.16146096519</v>
+        <v>82942.11574847545</v>
       </c>
       <c r="F6" t="n">
-        <v>83551.16146096516</v>
+        <v>82942.11574847548</v>
       </c>
       <c r="G6" t="n">
-        <v>83551.16146096512</v>
+        <v>82942.11574847548</v>
       </c>
       <c r="H6" t="n">
-        <v>83551.16146096517</v>
+        <v>82942.11574847548</v>
       </c>
       <c r="I6" t="n">
-        <v>-75309.08980138581</v>
+        <v>-75360.12046357019</v>
       </c>
       <c r="J6" t="n">
-        <v>-28699.91788282247</v>
+        <v>-28750.94854500689</v>
       </c>
       <c r="K6" t="n">
-        <v>116833.7520519939</v>
+        <v>116782.7213898098</v>
       </c>
       <c r="L6" t="n">
-        <v>116833.752051994</v>
+        <v>116782.7213898098</v>
       </c>
       <c r="M6" t="n">
-        <v>116833.752051994</v>
+        <v>116782.7213898098</v>
       </c>
       <c r="N6" t="n">
-        <v>116833.7520519939</v>
+        <v>116782.7213898098</v>
       </c>
       <c r="O6" t="n">
-        <v>116833.7520519941</v>
+        <v>116782.7213898097</v>
       </c>
       <c r="P6" t="n">
-        <v>116833.7520519941</v>
+        <v>116782.7213898096</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>722.5561044572627</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>510.5455990486529</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34780,13 +34780,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>437.0840165728148</v>
+        <v>437.0840165728146</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34871,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977413</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>48.74406945557163</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>150.7519016821051</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155939</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>144.2794790315867</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>150.7519016821051</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155939</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L10" t="n">
-        <v>358.2720417115358</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35412,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L11" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155939</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O11" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>440.0596680121643</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L14" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>415.0101894726378</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>440.0596680121643</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L17" t="n">
-        <v>556.2278131155939</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M20" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O20" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>510.5455990486528</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L21" t="n">
-        <v>158.2737632597938</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>886.8993927061629</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
-        <v>177.6936802674302</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36606,13 +36606,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>324.5260868755238</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,10 +36840,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>357.4788798574147</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36855,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>86.8003148788559</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>57.59993608192674</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>452.1971664929787</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>886.8993927061629</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>396.8624089123078</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>267.053332433632</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37791,10 +37791,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>699.4275107890115</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q42" t="n">
-        <v>385.2564605346102</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>436.0509951211314</v>
+        <v>188.5286477120479</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
@@ -38104,7 +38104,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
